--- a/biology/Mycologie/Michel_Morelet/Michel_Morelet.xlsx
+++ b/biology/Mycologie/Michel_Morelet/Michel_Morelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Morelet, né le 20 mai 1938 à Brazzaville, en République du Congo, et mort le 20 décembre 2020 à Nancy, en France, est un botaniste, mycologue et taxinomiste français, docteur en biologie végétale à l'Université Nancy-I (1983) et ingénieur à l'Institut national de la recherche agronomique en phytopathologie (en 1997).
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Michel Morelet naît le 20 mai 1938 à Brazzaville. Après une enfance et une scolarité au Congo, au Vietnam, puis au Mali, il est formé à l'Institut Agricole du Centre à Yzeure dans l'Allier de 1956 à 1960, puis au Centre d'enseignement zootechnique de Rambouillet. Il effectue ensuite un stage à l'Institut national de la recherche agronomique (INRA) à Jouy-en-Josas en 1962-1963, puis dans le laboratoire de phytopathologie du Professeur Georges Viennot-Bourgin à l'Institut national agronomique en 1963-1964[1].
-Carrière
-Il est recruté à l'INRA à Nancy le 1er janvier 1965. Il fait partie des « membres fondateurs » du Laboratoire de Pathologie Forestière créé en 1964 par Louis Lanier à l'ENGREF, laboratoire qui déménage à Champenoux en 1971 et qui constitue depuis une équipe de l'UMR « Interactions Arbres – Microorganismes ». Il est initialement technicien et devient rapidement Ingénieur d'études. Il est pendant de nombreuses années responsable du « Service de détermination » du Laboratoire de Pathologie Forestière. Il encadre à ce titre le DEA de Pierre Chandelier, qui devient le premier responsable de l'Unité de Mycologie Agricole et Forestière du Laboratoire National de la Protection des Végétaux à Nancy (depuis intégrée à l'Anses)[1].
-Il soutient une thèse de doctorat en 1983 à l'Université de Nancy sur la « Systématique et biologie des Venturia inféodés aux peupliers de la section Leuce ». C'est un mycologue et systématicien reconnu et faisant autorité en France et à l'étranger. Il nomme, ou renomme, pour la première fois de nombreux taxons de champignons pathogènes des arbres. Il publie plus de 60 articles scientifiques, la plupart en français. Il contribue au tome I de l'ouvrage de référence Mycologie et pathologie forestières de Louis Lanier et co-auteurs, publié en 1978. Sa contribution la plus notable est la publication en 1997 avec Étienne Kiffer de l'ouvrage Les Deutéromycètes : Classification et clés d'identification générique aux éditions INRA (depuis éditions Quæ). Cet ouvrage est traduit en anglais en 2000 aux éditions Taylor &amp; Francis. Tout au long de sa carrière, Michel Morelet réunit des échantillons (dont des échantillons type) qui constituent l'herbier mycologique de Pathologie forestière. Cet herbier, qui compte près de 1 500 échantillons, est conservé au sein de l'UMR Interactions Arbres – Microorganismes[1].
-Michel Morelet prend sa retraite en 2000, mais reste encore actif dans le domaine de la taxinomie des champignons pendant de nombreuses années. Il meurt à l'âge de 82 ans le 20 décembre 2020 à Nancy[1].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Morelet naît le 20 mai 1938 à Brazzaville. Après une enfance et une scolarité au Congo, au Vietnam, puis au Mali, il est formé à l'Institut Agricole du Centre à Yzeure dans l'Allier de 1956 à 1960, puis au Centre d'enseignement zootechnique de Rambouillet. Il effectue ensuite un stage à l'Institut national de la recherche agronomique (INRA) à Jouy-en-Josas en 1962-1963, puis dans le laboratoire de phytopathologie du Professeur Georges Viennot-Bourgin à l'Institut national agronomique en 1963-1964.
 </t>
         </is>
       </c>
@@ -544,18 +557,128 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est recruté à l'INRA à Nancy le 1er janvier 1965. Il fait partie des « membres fondateurs » du Laboratoire de Pathologie Forestière créé en 1964 par Louis Lanier à l'ENGREF, laboratoire qui déménage à Champenoux en 1971 et qui constitue depuis une équipe de l'UMR « Interactions Arbres – Microorganismes ». Il est initialement technicien et devient rapidement Ingénieur d'études. Il est pendant de nombreuses années responsable du « Service de détermination » du Laboratoire de Pathologie Forestière. Il encadre à ce titre le DEA de Pierre Chandelier, qui devient le premier responsable de l'Unité de Mycologie Agricole et Forestière du Laboratoire National de la Protection des Végétaux à Nancy (depuis intégrée à l'Anses).
+Il soutient une thèse de doctorat en 1983 à l'Université de Nancy sur la « Systématique et biologie des Venturia inféodés aux peupliers de la section Leuce ». C'est un mycologue et systématicien reconnu et faisant autorité en France et à l'étranger. Il nomme, ou renomme, pour la première fois de nombreux taxons de champignons pathogènes des arbres. Il publie plus de 60 articles scientifiques, la plupart en français. Il contribue au tome I de l'ouvrage de référence Mycologie et pathologie forestières de Louis Lanier et co-auteurs, publié en 1978. Sa contribution la plus notable est la publication en 1997 avec Étienne Kiffer de l'ouvrage Les Deutéromycètes : Classification et clés d'identification générique aux éditions INRA (depuis éditions Quæ). Cet ouvrage est traduit en anglais en 2000 aux éditions Taylor &amp; Francis. Tout au long de sa carrière, Michel Morelet réunit des échantillons (dont des échantillons type) qui constituent l'herbier mycologique de Pathologie forestière. Cet herbier, qui compte près de 1 500 échantillons, est conservé au sein de l'UMR Interactions Arbres – Microorganismes.
+Michel Morelet prend sa retraite en 2000, mais reste encore actif dans le domaine de la taxinomie des champignons pendant de nombreuses années. Il meurt à l'âge de 82 ans le 20 décembre 2020 à Nancy.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive)
-Ouvrages
-(en tant que coauteur) Louis Lanier et al., Mycologie et pathologie forestières, 1978 (ISBN 978-2-225-46871-1, lire en ligne)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en tant que coauteur) Louis Lanier et al., Mycologie et pathologie forestières, 1978 (ISBN 978-2-225-46871-1, lire en ligne)
 Étienne Kiffer et Michel Morelet, Les deutéromycètes : classification et clés d'identification générique, Editions Quae, 1997 (ISBN 978-2-7592-0211-9, lire en ligne)
-Michel Morelet, « Systématique et biologie des Venturia inféodes aux peupliers de la section Leuce », Thèse de doctorat, Université de Nancy I,‎ 1983 (lire en ligne, consulté le 25 août 2023)
-Articles
-Michel Morelet, « Étude expérimentale préliminaire des Pollaccia inféodés aux peupliers de la section Leuce », Publications de la Société Linnéenne de Lyon, vol. 52,‎ 1983, p. 104–107 (ISSN 0366-1326, DOI 10.3406/linly.1983.10582, lire en ligne, consulté le 25 août 2023)
+Michel Morelet, « Systématique et biologie des Venturia inféodes aux peupliers de la section Leuce », Thèse de doctorat, Université de Nancy I,‎ 1983 (lire en ligne, consulté le 25 août 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Morelet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Michel Morelet, « Étude expérimentale préliminaire des Pollaccia inféodés aux peupliers de la section Leuce », Publications de la Société Linnéenne de Lyon, vol. 52,‎ 1983, p. 104–107 (ISSN 0366-1326, DOI 10.3406/linly.1983.10582, lire en ligne, consulté le 25 août 2023)
 Michel Morelet, « Une variété nouvelle de Fusicladium (Hyphomycètes) sur peuplier en Chine », Publications de la Société Linnéenne de Lyon, vol. 75, no 4,‎ 2006, p. 179–181 (DOI 10.3406/linly.2006.13627, lire en ligne, consulté le 25 août 2023)
 Michel Morelet, « La maladie chancreuse du pin d'Alep. I. Inventaire des champignons associés aux chancres », Publications de la Société Linnéenne de Lyon, vol. 40, no 9,‎ 1971, p. 265–269 (DOI 10.3406/linly.1971.9950, lire en ligne, consulté le 25 août 2023)
 Michel Morelet, « Kabatina thujae, agent d'une nouvelle maladie du cyprès de l'Arizona en France », Publications de la Société Linnéenne de Lyon, vol. 39, no 6,‎ 1970, p. 213–216 (DOI 10.3406/linly.1970.6099, lire en ligne, consulté le 25 août 2023)
@@ -564,33 +687,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Michel_Morelet</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Morelet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La base de données MycoBank recense 243 taxons de champignons attribués à Michel Morelet, dont les 82 basionymes suivants[2]  :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base de données MycoBank recense 243 taxons de champignons attribués à Michel Morelet, dont les 82 basionymes suivants  :
 Aureobasidium thujae-plicatae M.Morelet, 1978
 Beltrania magnoliae M.Morelet, &amp; Vivant, 2001
 Bitunicostilbe M.Morelet, 1971
